--- a/Module 2 Our First Data Walkthrough/Module 2 Lab Real World Data - car data.xlsx
+++ b/Module 2 Our First Data Walkthrough/Module 2 Lab Real World Data - car data.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emdetwece-my.sharepoint.com/personal/mdragt_md2c_nl/Documents/GitHubRepos/PracticalIntroductionToDataAnalysis/Module 2 Our First Data Walkthrough/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE4578BF-489D-466A-AB98-AA7D87B05DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{CE4578BF-489D-466A-AB98-AA7D87B05DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC9E3E88-D033-4630-994F-1BD25F196844}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{BF6D91F1-C9A2-4063-9723-553AC7F67B02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$33</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -171,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,25 +536,16 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="B1" sqref="B1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -627,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -665,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -703,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -741,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -779,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -817,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -855,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -893,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -931,7 +925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -969,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1007,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1083,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1121,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1159,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1235,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1311,7 +1305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1349,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1387,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1425,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1463,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1501,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1539,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1577,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1615,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1653,7 +1647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1691,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1729,7 +1723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1767,7 +1761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1806,6 +1800,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L33" xr:uid="{F6AD81A9-0312-42E9-ACFF-18EFD1B0ACC4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2049,37 +2044,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B665AA60-BBE4-4830-9DA8-50CA46193A6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="293ffddf-63db-42f4-9a40-b3cf35004a84"/>
-    <ds:schemaRef ds:uri="e7f344b5-e55a-4aea-9d83-e92b9273d1a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B665AA60-BBE4-4830-9DA8-50CA46193A6A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EE5501E-B9FC-43A3-97F0-E6EEE61DED29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EE5501E-B9FC-43A3-97F0-E6EEE61DED29}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50379D1A-5968-4575-8104-2DF8B417C826}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50379D1A-5968-4575-8104-2DF8B417C826}"/>
 </file>
--- a/Module 2 Our First Data Walkthrough/Module 2 Lab Real World Data - car data.xlsx
+++ b/Module 2 Our First Data Walkthrough/Module 2 Lab Real World Data - car data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emdetwece-my.sharepoint.com/personal/mdragt_md2c_nl/Documents/GitHubRepos/PracticalIntroductionToDataAnalysis/Module 2 Our First Data Walkthrough/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{CE4578BF-489D-466A-AB98-AA7D87B05DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC9E3E88-D033-4630-994F-1BD25F196844}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B2BB03A-A883-4D38-A893-480223695296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{BF6D91F1-C9A2-4063-9723-553AC7F67B02}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,16 +536,16 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="12" width="10.5703125" customWidth="1"/>
+    <col min="2" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1806,6 +1806,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D25D69C3A18DD344B9E91FB0893A81C9" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="0c4bca08f2b1104e27be47b9a6ec27d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="293ffddf-63db-42f4-9a40-b3cf35004a84" xmlns:ns4="e7f344b5-e55a-4aea-9d83-e92b9273d1a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af35ef3863a1fdc07e4b73ac80d89653" ns3:_="" ns4:_="">
     <xsd:import namespace="293ffddf-63db-42f4-9a40-b3cf35004a84"/>
@@ -2028,29 +2043,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B665AA60-BBE4-4830-9DA8-50CA46193A6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50379D1A-5968-4575-8104-2DF8B417C826}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EE5501E-B9FC-43A3-97F0-E6EEE61DED29}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EE5501E-B9FC-43A3-97F0-E6EEE61DED29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50379D1A-5968-4575-8104-2DF8B417C826}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B665AA60-BBE4-4830-9DA8-50CA46193A6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="293ffddf-63db-42f4-9a40-b3cf35004a84"/>
+    <ds:schemaRef ds:uri="e7f344b5-e55a-4aea-9d83-e92b9273d1a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>